--- a/biology/Médecine/Chondrodysplasie_métaphysaire_type_Schmid/Chondrodysplasie_métaphysaire_type_Schmid.xlsx
+++ b/biology/Médecine/Chondrodysplasie_métaphysaire_type_Schmid/Chondrodysplasie_métaphysaire_type_Schmid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chondrodysplasie métaphysaire type Schmid est une maladie se traduisant par un nanisme micromélique avec coxa-vara sans dysmorphisme facial. Elle n'est très souvent découverte qu'en présence de coxa vara chez un adulte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène COL10A1 situé sur le locus q21-q22.3 du Chromosome 6</t>
         </is>
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -575,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -601,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -616,16 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Clinique
-Biologique
-Génétique</t>
-        </is>
-      </c>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -633,7 +649,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,10 +664,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel</t>
+          <t>Traitement</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -659,7 +677,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -674,10 +692,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Traitement</t>
+          <t>Mode transmission</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -685,7 +710,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
+          <t>Chondrodysplasie_métaphysaire_type_Schmid</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -700,75 +725,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mode transmission</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission autosomique dominante
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Famille d’un patient
-Dépistage prénatal</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chondrodysplasie_m%C3%A9taphysaire_type_Schmid</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Université Johns-Hopkins, Baltimore, MD. MIM Number:156500 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Université Johns-Hopkins, Baltimore, MD. MIM Number:156500 
  Portail du handicap   Portail de la médecine                    </t>
         </is>
       </c>
